--- a/sheets/SalesProjections.xlsx
+++ b/sheets/SalesProjections.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Q1</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Q4</t>
-  </si>
-  <si>
-    <t>Quarterly Sales Projections for Veg-To-Go</t>
   </si>
   <si>
     <t>Year 1</t>
@@ -89,9 +86,6 @@
     <t>Totals</t>
   </si>
   <si>
-    <t>Quarterly Expense Projections for Veg-To-Go</t>
-  </si>
-  <si>
     <t>Ingredients</t>
   </si>
   <si>
@@ -124,7 +118,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,34 +142,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,16 +158,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -209,7 +172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -253,43 +216,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="20% - Accent2" xfId="7" builtinId="34"/>
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+  <cellStyles count="6">
+    <cellStyle name="40% - Accent4" xfId="5" builtinId="43"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Input" xfId="5" builtinId="20"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="6" builtinId="10"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -343,20 +297,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quarterly Sales Projections for Veg-To-Go</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$M$12</c:f>
+              <c:f>Sheet1!$B$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -367,25 +310,25 @@
                   <c:v>2496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4188</c:v>
+                  <c:v>3688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4622</c:v>
+                  <c:v>3920</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4586</c:v>
+                  <c:v>4184</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4952</c:v>
+                  <c:v>5150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5468</c:v>
+                  <c:v>5950</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6340</c:v>
+                  <c:v>6590</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7284</c:v>
+                  <c:v>7800</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9640</c:v>
@@ -400,6 +343,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F33-46E4-BA32-F24BD97ADBCB}"/>
             </c:ext>
@@ -423,20 +381,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quarterly Sales Projections for Veg-To-Go</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$M$25</c:f>
+              <c:f>Sheet1!$B$23:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -447,25 +394,25 @@
                   <c:v>-5354</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4062</c:v>
+                  <c:v>-4562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3228</c:v>
+                  <c:v>-3930</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6164</c:v>
+                  <c:v>-6566</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5798</c:v>
+                  <c:v>-5600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5282</c:v>
+                  <c:v>-4800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4410</c:v>
+                  <c:v>-4160</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3466</c:v>
+                  <c:v>-2950</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-1110</c:v>
@@ -480,6 +427,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F33-46E4-BA32-F24BD97ADBCB}"/>
             </c:ext>
@@ -710,7 +672,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$16:$M$16</c:f>
+              <c:f>Sheet1!$B$14:$M$14</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -754,7 +716,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$M$25</c:f>
+              <c:f>Sheet1!$B$23:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -765,25 +727,25 @@
                   <c:v>-5354</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4062</c:v>
+                  <c:v>-4562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3228</c:v>
+                  <c:v>-3930</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6164</c:v>
+                  <c:v>-6566</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5798</c:v>
+                  <c:v>-5600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5282</c:v>
+                  <c:v>-4800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4410</c:v>
+                  <c:v>-4160</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3466</c:v>
+                  <c:v>-2950</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-1110</c:v>
@@ -2038,13 +2000,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>138113</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>294399</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>34636</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2067,15 +2029,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>405847</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95072</xdr:rowOff>
+      <xdr:colOff>38455</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>84838</xdr:rowOff>
+      <xdr:rowOff>57623</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2360,10 +2322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,85 +2336,109 @@
     <col min="6" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>3</v>
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>384</v>
+      </c>
+      <c r="C3">
+        <v>384</v>
+      </c>
+      <c r="D3">
+        <v>384</v>
+      </c>
+      <c r="E3">
+        <v>400</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3">
+        <v>600</v>
+      </c>
+      <c r="I3">
+        <v>600</v>
+      </c>
+      <c r="J3">
+        <v>750</v>
+      </c>
+      <c r="K3">
+        <v>820</v>
+      </c>
+      <c r="L3">
+        <v>790</v>
+      </c>
+      <c r="M3">
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B4">
@@ -2468,16 +2454,16 @@
         <v>400</v>
       </c>
       <c r="F4">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="G4">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="H4">
-        <v>384</v>
+        <v>650</v>
       </c>
       <c r="I4">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="J4">
         <v>750</v>
@@ -2489,11 +2475,11 @@
         <v>790</v>
       </c>
       <c r="M4">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5">
@@ -2506,35 +2492,35 @@
         <v>384</v>
       </c>
       <c r="E5">
-        <v>650</v>
+        <v>384</v>
       </c>
       <c r="F5">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
         <v>800</v>
       </c>
-      <c r="H5">
-        <v>384</v>
-      </c>
       <c r="I5">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="J5">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="K5">
-        <v>820</v>
+        <v>1900</v>
       </c>
       <c r="L5">
-        <v>790</v>
+        <v>2000</v>
       </c>
       <c r="M5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6">
@@ -2544,38 +2530,38 @@
         <v>384</v>
       </c>
       <c r="D6">
-        <v>384</v>
+        <v>500</v>
       </c>
       <c r="E6">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F6">
-        <v>384</v>
+        <v>600</v>
       </c>
       <c r="G6">
-        <v>384</v>
+        <v>750</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="J6">
-        <v>384</v>
+        <v>1500</v>
       </c>
       <c r="K6">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="L6">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M6">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
@@ -2588,25 +2574,25 @@
         <v>500</v>
       </c>
       <c r="E7">
-        <v>384</v>
+        <v>600</v>
       </c>
       <c r="F7">
-        <v>384</v>
+        <v>600</v>
       </c>
       <c r="G7">
-        <v>384</v>
+        <v>1200</v>
       </c>
       <c r="H7">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="I7">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="J7">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K7">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L7">
         <v>2500</v>
@@ -2616,17 +2602,17 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>384</v>
+        <v>192</v>
       </c>
       <c r="C8">
-        <v>384</v>
+        <v>192</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>1152</v>
       </c>
       <c r="E8">
         <v>1152</v>
@@ -2635,29 +2621,29 @@
         <v>1200</v>
       </c>
       <c r="G8">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="H8">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="I8">
+        <v>1600</v>
+      </c>
+      <c r="J8">
+        <v>1400</v>
+      </c>
+      <c r="K8">
         <v>1500</v>
       </c>
-      <c r="J8">
-        <v>2000</v>
-      </c>
-      <c r="K8">
-        <v>2200</v>
-      </c>
       <c r="L8">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M8">
-        <v>2500</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B9">
@@ -2667,38 +2653,38 @@
         <v>192</v>
       </c>
       <c r="D9">
-        <v>1152</v>
+        <v>192</v>
       </c>
       <c r="E9">
-        <v>1152</v>
+        <v>192</v>
       </c>
       <c r="F9">
-        <v>1200</v>
+        <v>192</v>
       </c>
       <c r="G9">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="H9">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="I9">
-        <v>1600</v>
+        <v>220</v>
       </c>
       <c r="J9">
-        <v>1400</v>
+        <v>250</v>
       </c>
       <c r="K9">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="L9">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="M9">
-        <v>1800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B10">
@@ -2739,540 +2725,516 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>192</v>
-      </c>
-      <c r="C11">
-        <v>192</v>
-      </c>
-      <c r="D11">
-        <v>192</v>
-      </c>
-      <c r="E11">
-        <v>192</v>
-      </c>
-      <c r="F11">
-        <v>192</v>
-      </c>
-      <c r="G11">
-        <v>200</v>
-      </c>
-      <c r="H11">
-        <v>200</v>
-      </c>
-      <c r="I11">
-        <v>220</v>
-      </c>
-      <c r="J11">
-        <v>250</v>
-      </c>
-      <c r="K11">
-        <v>300</v>
-      </c>
-      <c r="L11">
-        <v>400</v>
-      </c>
-      <c r="M11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="8">
-        <f>SUM(B4:B11)</f>
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <f>SUM(B3:B10)</f>
         <v>2496</v>
       </c>
-      <c r="C12" s="8">
-        <f t="shared" ref="C12:M12" si="0">SUM(C4:C11)</f>
+      <c r="C11" s="4">
+        <f t="shared" ref="C11:M11" si="0">SUM(C3:C10)</f>
         <v>2496</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>4188</v>
-      </c>
-      <c r="E12" s="8">
+        <v>3688</v>
+      </c>
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>4622</v>
-      </c>
-      <c r="F12" s="8">
+        <v>3920</v>
+      </c>
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>4586</v>
-      </c>
-      <c r="G12" s="8">
+        <v>4184</v>
+      </c>
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>4952</v>
-      </c>
-      <c r="H12" s="8">
+        <v>5150</v>
+      </c>
+      <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>5468</v>
-      </c>
-      <c r="I12" s="8">
+        <v>5950</v>
+      </c>
+      <c r="I11" s="4">
         <f t="shared" si="0"/>
-        <v>6340</v>
-      </c>
-      <c r="J12" s="8">
+        <v>6590</v>
+      </c>
+      <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>7284</v>
-      </c>
-      <c r="K12" s="8">
+        <v>7800</v>
+      </c>
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>9640</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L11" s="4">
         <f t="shared" si="0"/>
         <v>11180</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M11" s="4">
         <f t="shared" si="0"/>
         <v>11700</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="A15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2400</v>
+      </c>
+      <c r="G15">
+        <v>2400</v>
+      </c>
+      <c r="H15">
+        <v>2400</v>
+      </c>
+      <c r="I15">
+        <v>2400</v>
+      </c>
+      <c r="J15">
+        <v>2400</v>
+      </c>
+      <c r="K15">
+        <v>2400</v>
+      </c>
+      <c r="L15">
+        <v>2400</v>
+      </c>
+      <c r="M15">
+        <v>2400</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>3</v>
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>2000</v>
+      </c>
+      <c r="C16">
+        <v>2000</v>
+      </c>
+      <c r="D16">
+        <v>2400</v>
+      </c>
+      <c r="E16">
+        <v>2000</v>
+      </c>
+      <c r="F16">
+        <v>2500</v>
+      </c>
+      <c r="G16">
+        <v>2500</v>
+      </c>
+      <c r="H16">
+        <v>2500</v>
+      </c>
+      <c r="I16">
+        <v>2500</v>
+      </c>
+      <c r="J16">
+        <v>2500</v>
+      </c>
+      <c r="K16">
+        <v>2500</v>
+      </c>
+      <c r="L16">
+        <v>2500</v>
+      </c>
+      <c r="M16">
+        <v>2500</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
+      <c r="A17" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="F17">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="G17">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="H17">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="I17">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="J17">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="K17">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="L17">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="M17">
-        <v>2400</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B18">
         <v>2000</v>
       </c>
       <c r="C18">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="D18">
-        <v>2400</v>
+        <v>300</v>
       </c>
       <c r="E18">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="F18">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="G18">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="H18">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="I18">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="J18">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="K18">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="L18">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="M18">
-        <v>2500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B19">
-        <v>4800</v>
+        <v>1000</v>
       </c>
       <c r="C19">
-        <v>4800</v>
+        <v>500</v>
       </c>
       <c r="D19">
-        <v>4800</v>
+        <v>500</v>
       </c>
       <c r="E19">
-        <v>4800</v>
+        <v>500</v>
       </c>
       <c r="F19">
-        <v>4800</v>
+        <v>500</v>
       </c>
       <c r="G19">
-        <v>4800</v>
+        <v>500</v>
       </c>
       <c r="H19">
-        <v>4800</v>
+        <v>500</v>
       </c>
       <c r="I19">
-        <v>4800</v>
+        <v>500</v>
       </c>
       <c r="J19">
-        <v>4800</v>
+        <v>500</v>
       </c>
       <c r="K19">
-        <v>4800</v>
+        <v>500</v>
       </c>
       <c r="L19">
-        <v>4800</v>
+        <v>500</v>
       </c>
       <c r="M19">
-        <v>4800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="C20">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D20">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E20">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F20">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G20">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H20">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="I20">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J20">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K20">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L20">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M20">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>1000</v>
-      </c>
-      <c r="C21">
-        <v>500</v>
-      </c>
-      <c r="D21">
-        <v>500</v>
-      </c>
-      <c r="E21">
-        <v>500</v>
-      </c>
-      <c r="F21">
-        <v>500</v>
-      </c>
-      <c r="G21">
-        <v>500</v>
-      </c>
-      <c r="H21">
-        <v>500</v>
-      </c>
-      <c r="I21">
-        <v>500</v>
-      </c>
-      <c r="J21">
-        <v>500</v>
-      </c>
-      <c r="K21">
-        <v>500</v>
-      </c>
-      <c r="L21">
-        <v>500</v>
-      </c>
-      <c r="M21">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>250</v>
-      </c>
-      <c r="C22">
-        <v>250</v>
-      </c>
-      <c r="D22">
-        <v>250</v>
-      </c>
-      <c r="E22">
-        <v>250</v>
-      </c>
-      <c r="F22">
-        <v>250</v>
-      </c>
-      <c r="G22">
-        <v>250</v>
-      </c>
-      <c r="H22">
-        <v>250</v>
-      </c>
-      <c r="I22">
-        <v>250</v>
-      </c>
-      <c r="J22">
-        <v>250</v>
-      </c>
-      <c r="K22">
-        <v>250</v>
-      </c>
-      <c r="L22">
-        <v>250</v>
-      </c>
-      <c r="M22">
-        <v>250</v>
+      <c r="A21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" ref="B21:M21" si="1">SUM(B15:B20)</f>
+        <v>10050</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="1"/>
+        <v>7850</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="1"/>
+        <v>8250</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>7850</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="1"/>
+        <v>10750</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>10750</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>10750</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="1"/>
+        <v>10750</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="1"/>
+        <v>10750</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="1"/>
+        <v>10750</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="1"/>
+        <v>10750</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="1"/>
+        <v>10750</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="7">
-        <f>SUM(B17:B22)</f>
-        <v>10050</v>
-      </c>
-      <c r="C23" s="7">
-        <f>SUM(C17:C22)</f>
-        <v>7850</v>
-      </c>
-      <c r="D23" s="7">
-        <f>SUM(D17:D22)</f>
-        <v>8250</v>
-      </c>
-      <c r="E23" s="7">
-        <f>SUM(E17:E22)</f>
-        <v>7850</v>
-      </c>
-      <c r="F23" s="7">
-        <f>SUM(F17:F22)</f>
-        <v>10750</v>
-      </c>
-      <c r="G23" s="7">
-        <f>SUM(G17:G22)</f>
-        <v>10750</v>
-      </c>
-      <c r="H23" s="7">
-        <f>SUM(H17:H22)</f>
-        <v>10750</v>
-      </c>
-      <c r="I23" s="7">
-        <f>SUM(I17:I22)</f>
-        <v>10750</v>
-      </c>
-      <c r="J23" s="7">
-        <f>SUM(J17:J22)</f>
-        <v>10750</v>
-      </c>
-      <c r="K23" s="7">
-        <f>SUM(K17:K22)</f>
-        <v>10750</v>
-      </c>
-      <c r="L23" s="7">
-        <f>SUM(L17:L22)</f>
-        <v>10750</v>
-      </c>
-      <c r="M23" s="7">
-        <f>SUM(M17:M22)</f>
-        <v>10750</v>
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B11-B21</f>
+        <v>-7554</v>
+      </c>
+      <c r="C23" s="4">
+        <f>C11-C21</f>
+        <v>-5354</v>
+      </c>
+      <c r="D23" s="4">
+        <f>D11-D21</f>
+        <v>-4562</v>
+      </c>
+      <c r="E23" s="4">
+        <f>E11-E21</f>
+        <v>-3930</v>
+      </c>
+      <c r="F23" s="4">
+        <f>F11-F21</f>
+        <v>-6566</v>
+      </c>
+      <c r="G23" s="4">
+        <f>G11-G21</f>
+        <v>-5600</v>
+      </c>
+      <c r="H23" s="4">
+        <f>H11-H21</f>
+        <v>-4800</v>
+      </c>
+      <c r="I23" s="4">
+        <f>I11-I21</f>
+        <v>-4160</v>
+      </c>
+      <c r="J23" s="4">
+        <f>J11-J21</f>
+        <v>-2950</v>
+      </c>
+      <c r="K23" s="4">
+        <f>K11-K21</f>
+        <v>-1110</v>
+      </c>
+      <c r="L23" s="4">
+        <f>L11-L21</f>
+        <v>430</v>
+      </c>
+      <c r="M23" s="4">
+        <f>M11-M21</f>
+        <v>950</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="8">
-        <f>B12-B23</f>
-        <v>-7554</v>
-      </c>
-      <c r="C25" s="8">
-        <f>C12-C23</f>
-        <v>-5354</v>
-      </c>
-      <c r="D25" s="8">
-        <f>D12-D23</f>
-        <v>-4062</v>
-      </c>
-      <c r="E25" s="8">
-        <f>E12-E23</f>
-        <v>-3228</v>
-      </c>
-      <c r="F25" s="8">
-        <f>F12-F23</f>
-        <v>-6164</v>
-      </c>
-      <c r="G25" s="8">
-        <f>G12-G23</f>
-        <v>-5798</v>
-      </c>
-      <c r="H25" s="8">
-        <f>H12-H23</f>
-        <v>-5282</v>
-      </c>
-      <c r="I25" s="8">
-        <f>I12-I23</f>
-        <v>-4410</v>
-      </c>
-      <c r="J25" s="8">
-        <f>J12-J23</f>
-        <v>-3466</v>
-      </c>
-      <c r="K25" s="8">
-        <f>K12-K23</f>
-        <v>-1110</v>
-      </c>
-      <c r="L25" s="8">
-        <f>L12-L23</f>
-        <v>430</v>
-      </c>
-      <c r="M25" s="8">
-        <f>M12-M23</f>
-        <v>950</v>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:C32" si="2">A29*4</f>
+        <v>200</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="D29">
+        <f>C29*3</f>
+        <v>2400</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="D30">
+        <f>C30*3</f>
+        <v>1152</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3280,11 +3242,11 @@
         <v>50</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:C34" si="1">A31*4</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="D31">
@@ -3294,71 +3256,71 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B32">
-        <f t="shared" si="1"/>
-        <v>96</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
-        <v>384</v>
+        <f t="shared" si="2"/>
+        <v>1600</v>
       </c>
       <c r="D32">
         <f>C32*3</f>
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>50</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="D33">
-        <f>C33*3</f>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>100</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>1600</v>
-      </c>
-      <c r="D34">
-        <f>C34*3</f>
         <v>4800</v>
       </c>
-      <c r="F34" t="s">
-        <v>28</v>
+      <c r="F32" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B14:M14"/>
+  <mergeCells count="6">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:M12">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="B13:M13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:M20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:M21">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:M23">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3370,7 +3332,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:M14">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3381,56 +3343,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:M15">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:M22">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:M23">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:M25">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:M16">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B1:M11">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/sheets/SalesProjections.xlsx
+++ b/sheets/SalesProjections.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,11 +231,11 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent4" xfId="5" builtinId="43"/>
@@ -346,7 +346,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:strRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -354,7 +354,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:strRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -430,7 +430,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:strRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -438,7 +438,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:strRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -2322,10 +2322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:M23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2337,28 +2337,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +2397,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B3">
@@ -2438,7 +2438,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B4">
@@ -2479,7 +2479,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5">
@@ -2520,7 +2520,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
@@ -2561,7 +2561,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B7">
@@ -2602,7 +2602,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B8">
@@ -2643,7 +2643,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9">
@@ -2684,7 +2684,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B10">
@@ -2778,28 +2778,28 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2838,7 +2838,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B15">
@@ -2879,7 +2879,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B16">
@@ -2920,7 +2920,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B17">
@@ -2961,7 +2961,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B18">
@@ -3002,7 +3002,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B19">
@@ -3043,7 +3043,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B20">
@@ -3141,51 +3141,51 @@
         <v>27</v>
       </c>
       <c r="B23" s="4">
-        <f>B11-B21</f>
+        <f t="shared" ref="B23:M23" si="2">B11-B21</f>
         <v>-7554</v>
       </c>
       <c r="C23" s="4">
-        <f>C11-C21</f>
+        <f t="shared" si="2"/>
         <v>-5354</v>
       </c>
       <c r="D23" s="4">
-        <f>D11-D21</f>
+        <f t="shared" si="2"/>
         <v>-4562</v>
       </c>
       <c r="E23" s="4">
-        <f>E11-E21</f>
+        <f t="shared" si="2"/>
         <v>-3930</v>
       </c>
       <c r="F23" s="4">
-        <f>F11-F21</f>
+        <f t="shared" si="2"/>
         <v>-6566</v>
       </c>
       <c r="G23" s="4">
-        <f>G11-G21</f>
+        <f t="shared" si="2"/>
         <v>-5600</v>
       </c>
       <c r="H23" s="4">
-        <f>H11-H21</f>
+        <f t="shared" si="2"/>
         <v>-4800</v>
       </c>
       <c r="I23" s="4">
-        <f>I11-I21</f>
+        <f t="shared" si="2"/>
         <v>-4160</v>
       </c>
       <c r="J23" s="4">
-        <f>J11-J21</f>
+        <f t="shared" si="2"/>
         <v>-2950</v>
       </c>
       <c r="K23" s="4">
-        <f>K11-K21</f>
+        <f t="shared" si="2"/>
         <v>-1110</v>
       </c>
       <c r="L23" s="4">
-        <f>L11-L21</f>
+        <f t="shared" si="2"/>
         <v>430</v>
       </c>
       <c r="M23" s="4">
-        <f>M11-M21</f>
+        <f t="shared" si="2"/>
         <v>950</v>
       </c>
     </row>
@@ -3208,16 +3208,19 @@
         <v>50</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:C32" si="2">A29*4</f>
+        <f>A29*4</f>
         <v>200</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B29:C32" si="3">B29*4</f>
         <v>800</v>
       </c>
       <c r="D29">
         <f>C29*3</f>
         <v>2400</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -3225,11 +3228,11 @@
         <v>24</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>384</v>
       </c>
       <c r="D30">
@@ -3242,11 +3245,11 @@
         <v>50</v>
       </c>
       <c r="B31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="D31">
@@ -3259,19 +3262,33 @@
         <v>100</v>
       </c>
       <c r="B32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
       <c r="D32">
         <f>C32*3</f>
         <v>4800</v>
       </c>
-      <c r="F32" t="s">
-        <v>26</v>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>100</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="4">A33*4</f>
+        <v>400</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33" si="5">B33*4</f>
+        <v>1600</v>
+      </c>
+      <c r="D33">
+        <f>C33*3</f>
+        <v>4800</v>
       </c>
     </row>
   </sheetData>
